--- a/sheets/hypertension.xlsx
+++ b/sheets/hypertension.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="171">
   <si>
     <t>Recipe Id</t>
   </si>
@@ -455,6 +455,625 @@
 Fat 3.2 g
 Cholesterol 0 mg
 Sodium 112.2 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 35094
+29 Mar 22</t>
+  </si>
+  <si>
+    <t>Jowar Roti recipe - How to make Jowar Roti</t>
+  </si>
+  <si>
+    <t>For jowar roti
+To make jowar roti, heat ¾ cup of water in a deep non-stick pan, switch off the flame, add the jowar flour and mix well. Keep aside to cool slightly.
+Transfer the mixture into a deep bowl and knead into a soft dough using 1 to 2 tbsp of water if needed.
+Divide the dough into 7 equal portions.
+Take a portion the dough, flatten it slightly and place it on a dusted rolling board and roll with your hands into a 125 mm. (5”) diameter circle.
+Heat a non-stick tava (griddle) on a medium flame and when hot, place the jowar roti gently over it.
+Cook it till small blisters appear on the surface. Turn over the jowar roti and cook for few more seconds.
+Cook the jowar roti on an open flame till it puffs up and brown spots appear on both the sides.
+Repeat steps 4 to 7 to make 6 more rotis.
+Serve the jowar roti immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Jowar Roti
+1 cup jowar (white millet) flour
+salt to taste</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/multiseed-mukhwas--omega-3-fatty-acids-and-fibre-rich-recipe--35094r</t>
+  </si>
+  <si>
+    <t>Energy 49 cal
+Protein 1.5 g
+Carbohydrates 10.2 g
+Fiber 1.4 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 1 mg</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>Recipe# 41569
+10 Dec 22</t>
+  </si>
+  <si>
+    <t>Rajma Brown Rice, Low Salt Recipe recipe - How to make Rajma Brown Rice, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>28 mins</t>
+  </si>
+  <si>
+    <t>For rajma brown rice
+To make rajma brown rice, soak the rajma in enough water in a deep bowl for 8 hours. Drain well and keep aside.
+Heat the oil in a pressure cooker and add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the onions and ginger-garlic paste and sauté on a medium flame for 2 to 3 minutes.
+Add the tomatoes, turmeric powder, chilli powder, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the rajma and 1 cup of water, mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Add the cooked brown rice, mix gently and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the rajma brown rice hot.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Rajma Brown Rice
+1/2 cup rajma (kidney beans)
+3 cups soaked and cooked brown rice
+1 1/2 tsp oil
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/2 cup sliced onions
+1/2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup chopped tomatoes
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1/8 tsp salt</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/jowar-roti-41569r</t>
+  </si>
+  <si>
+    <t>Energy 165 cal
+Protein 5.2 g
+Carbohydrates 30.7 g
+Fiber 1.8 g
+Fat 2.3 g
+Cholesterol 0 mg
+Sodium 67.9 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 42032
+01 Feb 22</t>
+  </si>
+  <si>
+    <t>Anti- Aging Breakfast Platter recipe - How to make Anti- Aging Breakfast Platter</t>
+  </si>
+  <si>
+    <t>For anti- aging breakfast platter
+To make anti- aging breakfast platter, combine the sprouted moong, paneer, chilli powder, cumin seeds powder and rock salt in a bowl and mix well.
+Arrange all the ingredients on a platter and serve immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Anti- Aging Breakfast Platter
+2 tbsp sprouted moong (whole green gram)
+1/4 cup low fat paneer (cottage cheese) cubes
+1/4 tsp chilli powder
+1/4 tsp cumin seeds (jeera) powder
+1/4 tsp rock salt (sendha namak)
+6 oranges segments
+1/2 cup watermelon (tarbuj) balls
+1/4 cup green grapes
+2 dates (khajur)
+4 walnuts (akhrot)
+5 almonds (badam)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-brown-rice-low-salt-recipe-42032r</t>
+  </si>
+  <si>
+    <t>Energy 324 cal
+Protein 15 g
+Carbohydrates 46.1 g
+Fiber 5.8 g
+Fat 9 g
+Cholesterol 0.1 mg
+Sodium 153.5 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 763
+29 Sep 21</t>
+  </si>
+  <si>
+    <t>Quinoa Veg Upma, Vegan Breakfast recipe - How to make Quinoa Veg Upma, Vegan Breakfast</t>
+  </si>
+  <si>
+    <t>For quinoa veg upma
+To make quinoa veg upma, heat the oil in a deep non-stick pan, add the mustard seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the green chillies, ginger and curry leaves and sauté on a medium flame for a few seconds.
+Add the peanuts and sauté on a medium flame for 1 minute.
+Add the onions and sauté on a medium flame for 2 minutes.
+Add the green peas and carrot and sauté on a medium flame for 2 minutes.
+Add the quinoa and sauté on a medium flame for 1 minute.
+Add the chilli powder, salt and 2¼ cups of hot water, mix well cover with a lid and cook on a medium flame for 20 to 22 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and lemon juice and mix well.
+Serve the quinoa veg upma immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Quinoa Veg Upma
+1/2 cup quinoa , washed and drained
+2 tsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp asafoetida (hing)
+1 tsp finely chopped green chillies
+1/2 tsp finely chopped ginger (adrak)
+4 curry leaves (kadi patta)
+2 tbsp raw peanuts
+1/2 cup finely chopped onions
+1/2 cup green peas
+1/4 cup finely chopped carrot
+1/4 tsp chilli powder
+salt to taste
+1/4 cup finely chopped coriander (dhania)
+1 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--aging-breakfast-platter-763r</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 5.3 g
+Carbohydrates 22.8 g
+Fiber 6.9 g
+Fat 5.1 g
+Cholesterol 0 mg
+Sodium 5.6 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 42265
+24 Dec 22</t>
+  </si>
+  <si>
+    <t>Tomato, Orange, Carrot and Papaya Juice recipe - How to make Tomato, Orange, Carrot and Papaya Juice</t>
+  </si>
+  <si>
+    <t>For tomato, orange, carrot and papaya juice
+To make tomato orange carrot and papaya juice, combine all the ingredients along with ¾ cup of water in a mixer and blend till smooth. Strain
+Strain the mixture using a strainer.
+Pour equal quantities of the juice into 4 individual glasses and top with 1 ice cube in each glass.
+Serve the tomato orange carrot and papaya juice immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Tomato , Orange , Carrot and Papaya Juice
+3 cups chopped tomatoes
+1 cup orange segments , cut into halves
+1 cup peeled and chopped carrot
+1/4 cup papaya cubes
+1/2 tsp lemon juice
+salt to taste
+For Serving With Tomato , Orange , Carrot and Papaya Juice
+4 few ice-cubes</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-veg-upma-vegan-breakfast-42265r</t>
+  </si>
+  <si>
+    <t>Energy 67 cal
+Protein 1.8 g
+Carbohydrates 13.9 g
+Fiber 4.3 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 31.3 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 1331
+10 May 22</t>
+  </si>
+  <si>
+    <t>Poha Nachni Handvo recipe - How to make Poha Nachni Handvo</t>
+  </si>
+  <si>
+    <t>60 mins</t>
+  </si>
+  <si>
+    <t>Combine the curds and 1½ cups of water in a deep bowl and whisk well.
+Add the poha, mix well and keep aside for 20 minutes.
+Add the bottle gourd, carrot, green peas, ginger-green chilli paste, sugar, turmeric powder, chilli powder and salt and mix well. Keep aside.
+Heat the oil in a small non-stick pan, add the mustard seeds, sesame seeds and asafoetida and sauté on a medium flame for 30 seconds.
+Add this tempering to the poha- curd-vegetable mixture and mix well.
+Add the nachni flour and mix well.
+Divide the batter into 6 equal portions.
+Heat a 100 mm. (4”) diameter non-stick pan and grease it with ¼ tsp of oil. Pour a portion of the batter on it and spread it evenly, cover with a lid and cook on a medium flame for 10 to 12 minutes or till both the sides turn golden brown in colour.
+Repeat step 8 to make 5 more handvos.
+Cut each handvo into 4 equal portions and serve immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Poha Nachni Handvo
+1 cup thick beaten rice (jada poha) , washed and drained
+1/2 cup ragi (nachni / red millet) flour
+1/2 cup curd (dahi)
+1/2 cup grated bottle gourd (doodhi / lauki)
+1/2 cup grated carrot
+1/4 cup boiled green peas
+2 tsp ginger-green chilli paste
+1 tsp sugar
+1/8 tsp turmeric powder (haldi)
+1/8 tsp chilli powder
+1/4 tsp salt
+1 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+2 tsp sesame seeds (til)
+1/8 tsp asafoetida (hing)
+1 tsp oil for greasing</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/tomato-orange-carrot-and-papaya-juice-1331r</t>
+  </si>
+  <si>
+    <t>Energy 125 cal
+Protein 2.9 g
+Carbohydrates 20.1 g
+Fiber 2.5 g
+Fat 3.3 g
+Cholesterol 2.7 mg
+Sodium 138.1 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 22308
+27 Oct 22</t>
+  </si>
+  <si>
+    <t>Semiya Vegetable Upma, Vermicelli Veg Upma Low Salt recipe - How to make Semiya Vegetable Upma, Vermicelli Veg Upma Low Salt</t>
+  </si>
+  <si>
+    <t>16 mins</t>
+  </si>
+  <si>
+    <t>For semiya vegetable upma
+To make semiya veg upma, heat a broad non-stick pan, add the vermicelli and dry roast it on medium flame for 3 minutes or till it turns golden brown in colour. Remove from the flame and keep aside.
+Heat the oil in the same broad non-stick pan and add the mustard seeds and urad dal and salute on a medium flame for 30 seconds.
+When the seeds crackle, add the onions, green chillies and curry leaves and sauté on medium flame for 2 minutes.
+Add the carrots, peas and ¼ cup water and mix well. Cover with a lid and cook on medium flame for 4 minutes or till the vegetables get cooked, while stirring occasionally.
+Add the vermicelli, 1 cup of hot water and salt and mix well. Cover with a lid and cook on medium flame for another 6 minutes, while stirring occasionally.
+Switch off the flame, add the lemon juice and mix well.
+Serve the semiya veg upma hot.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Semiya Vegetable Upma
+1 cup whole wheat vermicelli (semiya)
+2 tsp coconut oil
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+1/2 cup finely chopped onions
+1 tsp finely chopped green chillies
+4 curry leaves (kadi patta)
+1/2 cup finely chopped carrot
+1/2 cup green peas
+1/8 tsp salt
+1 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/poha-nachni-handvo-22308r</t>
+  </si>
+  <si>
+    <t>Energy 126 cal
+Protein 3.8 g
+Carbohydrates 19.7 g
+Fiber 3.8 g
+Fat 3.6 g
+Cholesterol 0 mg
+Sodium 141.6 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 22307
+26 Apr 21</t>
+  </si>
+  <si>
+    <t>Vegan Oats and Coconut Milk Pudding recipe - How to make Vegan Oats and Coconut Milk Pudding</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Combine all the ingredient in a mixer and blend it till smooth.
+Pour the mixture in a deep bowl, cover it with a lid and keep it in the refrigerator to set for 24 hours.
+Garnish it with almond and serve.</t>
+  </si>
+  <si>
+    <t>Ingredients
+1/2 cup quick cooking rolled oats
+1 1/4 cups coconut milk (nariyal ka doodh)
+1 1/2 tbsp peanut butter
+1 tsp maple syrup or honey
+1/2 tsp vanilla essence
+For Garnish
+1 tbsp almond (badam) slivers</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/semiya-vegetable-upma-vermicelli-veg-upma-low-salt-22307r</t>
+  </si>
+  <si>
+    <t>Energy 355 cal
+Protein 3.2 g
+Carbohydrates 19.7 g
+Fiber 2 g
+Fat 29 g
+Cholesterol 41.2 mg
+Sodium 141 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 42346
+22 Feb 22</t>
+  </si>
+  <si>
+    <t>Mooli Moong Dal, Low Salt Recipe recipe - How to make Mooli Moong Dal, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>Combine the radish, moong dal turmeric powder and 2 cups of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Heat the oil in a deep pan and add the cumin seeds, bayleaf and cloves.
+When the seeds crackle, add the green chillies, ginger, asafoetida and chilli powder and sauté on a medium flame for a few seconds.
+Add the radish-moong dal mixture, 1 cup of water and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Ingredients
+3/4 cup chopped white radish (mooli)
+1/2 cup yellow moong dal (split yellow gram) washed and drained
+1/2 tsp turmeric powder (haldi)
+1 tsp oil
+1/2 tsp cumin seeds (jeera)
+1 bayleaf (tejpatta)
+2 cloves (laung / lavang)
+1 tsp finely chopped green chillies
+1/2 tsp finely chopped ginger (adrak)
+1/4 tsp asafoetida (hing)
+1/2 tsp chilli powder
+1/4 tsp salt</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/vegan-oats-and-coconut-milk-pudding-42346r</t>
+  </si>
+  <si>
+    <t>Energy 81 cal
+Protein 4.8 g
+Carbohydrates 12.1 g
+Fiber 2.1 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 206.2 mg</t>
+  </si>
+  <si>
+    <t>vegan</t>
+  </si>
+  <si>
+    <t>Recipe# 22324
+09 Apr 21</t>
+  </si>
+  <si>
+    <t>Oats and Vegetable Broth recipe - How to make Oats and Vegetable Broth</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>For oats and vegetable broth
+To make oats and vegetable broth, heat the oil in a deep non-stick pan, add the onions, garlic and green chillies and sauté on a medium flame for 1 minute.
+Add all the vegetables and sauté on a medium flame for another 2 minutes.
+Add the oats and sauté on a medium flame for 1 more minute.
+Add 3 cups of hot water, salt and pepper, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the coriander and parsley, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the lemon juice and mix well.
+Serve the oats and vegetable broth immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Oats and Vegetable Broth
+1/2 cup quick cooking rolled oats
+2 tbsp finely chopped tomatoes
+2 tbsp finely chopped capsicum
+2 tbsp finely chopped cauliflower
+2 tbsp finely chopped carrot
+2 tbsp finely chopped cabbage
+2 tsp oil
+1/4 cup finely chopped onions
+2 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped green chillies
+salt and to taste
+2 tbsp finely chopped coriander (dhania)
+1/4 cup finely chopped parsley
+2 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mooli-moong-dal-low-salt-recipe-22324r</t>
+  </si>
+  <si>
+    <t>Energy 90 cal
+Protein 2.4 g
+Carbohydrates 12.7 g
+Fiber 3.4 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 18.1 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 7440
+25 May 21</t>
+  </si>
+  <si>
+    <t>Cucumber and Carrot Curd Brown Rice, Low Salt Recipe recipe - How to make Cucumber and Carrot Curd Brown Rice, Low Salt Recipe</t>
+  </si>
+  <si>
+    <t>Put the brown rice in a deep bowl and mash it with the help of a potato masher.
+Add the curd, cucumber, carrot, salt and 2 tbsp of water, mix well and keep aside.
+Heat the oil in a small non-stick pan add the urad dal, mustard seeds, green chillies, ginger and curry leaves and sauté on a medium flame for 1 minute.
+Pour the tempering over the prepared rice-curd mixture and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup grated cucumber
+1/2 cup grated carrot
+1 1/4 cups chilled whisked fresh curds (dahi)
+1 1/2 cups soaked and cooked brown rice
+1/8 tsp salt
+1 tsp oil
+1 tbsp urad dal (split black lentils)
+1/2 tsp mustard seeds ( rai / sarson)
+1 tsp finely chopped green chillies
+1/2 tsp finely chopped ginger (adrak)
+6 curry leaves (kadi patta)</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/oats-and-vegetable-broth-7440r</t>
+  </si>
+  <si>
+    <t>Energy 184 cal
+Protein 5.3 g
+Carbohydrates 23.6 g
+Fiber 2.5 g
+Fat 6 g
+Cholesterol 10 mg
+Sodium 118.4 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 42017
+24 Feb 21</t>
+  </si>
+  <si>
+    <t>Low Salt High Fiber Multigrain Bread recipe - How to make Low Salt High Fiber Multigrain Bread</t>
+  </si>
+  <si>
+    <t>Combine the yeast, sugar and ¼ cup of warm water in a bowl and mix well. Cover it with a lid and keep aside for 10 minutes.
+Combine all the remaining ingredients along with the yeast-sugar mixture in a deep bowl, mix well and knead into a loose sticky dough using approx. 1½ cups of warm water.
+Place the dough in a greased bread loaf tin of 200 mm. (8”). Wet your fingers and press the dough lightly to spread it evenly.
+Sprinkle the prepared topping evenly over it, cover it with a dry muslin cloth and keep aside in a warm place for 30 minutes.
+Bake it in a pre-heated oven at 210°c (420°f) for 20 minutes.
+Lower the temperature to 160°c (320°f) and bake it for 10 minutes. Keep aside to cool slightly.
+Once the bread loaf has cooled slightly, de-mould it and cut it into 13 mm. (½“) bread slices.</t>
+  </si>
+  <si>
+    <t>Ingredients
+2 cups whole wheat flour (gehun ka atta)
+1/4 cup ragi (nachni / red millet) flour
+1/4 cup jowar (white millet) flour
+1/4 cup bajra (black millet) flour
+1 tbsp powdered flax seeds
+1 tsp white sesame seeds (til)
+1 tsp melon seeds (charmagaz)
+1 tsp quick cooking rolled oats
+1/4 tsp salt
+1 tbsp instant dry yeast
+1 tbsp sugar
+To Be Mixed Into A Topping
+1/2 tsp ragi (nachni / red millet) flour
+1/2 tsp bajra (black millet) flour
+1 tsp quick cooking quick cooking rolled oats
+1/2 tsp flax seeds</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cucumber-and-carrot-curd-brown-rice-low-salt-recipe-42017r</t>
+  </si>
+  <si>
+    <t>Energy 85 cal
+Protein 2.7 g
+Carbohydrates 17.1 g
+Fiber 2.8 g
+Fat 0.9 g
+Cholesterol 0 mg
+Sodium 52.5 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 42020
+15 Feb 21</t>
+  </si>
+  <si>
+    <t>Almond Bhakri, Gluten Free Almond Bhakri recipe - How to make Almond Bhakri, Gluten Free Almond Bhakri</t>
+  </si>
+  <si>
+    <t>Peel the almonds.
+Blend the almonds in a mixer to a smooth mixture without using any water.
+Transfer the mixture into a deep bowl, add the ghee and salt and mix well to make a dough without using any water.
+Divide the dough into 6 equal portions.
+Grease the rolling board with ghee, put a portion of the dough and pat it to make a 100 mm. (4”) dimeter circle without using any flour.
+Heat a non-stick tava (griddle) and cook the bhakri using ghee till it turns golden brown in colour from both the sides.
+Repeat steps 5 and 6 to make 5 more bhakris.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Ingredients
+1 cup almonds (badam) , soaked for 1 hour in hot and drained
+2 tsp ghee
+salt to taste
+ghee for greasing and cooking</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/low-salt-high-fiber-multigrain-bread-42020r</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 3.5 g
+Carbohydrates 3.2 g
+Fiber 2 g
+Fat 16.5 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>Recipe# 41121
+21 Jul 22</t>
+  </si>
+  <si>
+    <t>Cauliflower and Bajra Roti, Bajra Gobi Paratha recipe - How to make Cauliflower and Bajra Roti, Bajra Gobi Paratha</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>For cauliflower and bajra roti
+To make cauliflower and bajra roti, combine all the ingredients and knead into a soft-smooth dough, using enough water.
+Divide the dough into 6 equal portions.
+Roll out one portion of the dough into a circle of 100 mm. (4") diameter.
+Heat a non-stick tava (griddle) using 1/4 tsp of oil.
+Place the roti on it and cook it, using 1/4 tsp of oil, till it turns golden brown in colour from both the sides.
+Repeat steps 3 to 5 to make 5 more parathas.
+Serve the cauliflower and bajra roti immediately.</t>
+  </si>
+  <si>
+    <t>Ingredients
+For Cauliflower and Bajra Roti
+1/2 cup bajra (black millet) flour
+3/4 cup grated cauliflower
+1 1/2 tbsp finely chopped spring onions whites
+1 1/2 tbsp finely chopped spring onion greens
+2 tbsp finely chopped coriander (dhania)
+1/2 tsp ginger-green chilli paste
+1/2 tsp grated garlic (lehsun)
+salt to taste
+Other Ingredients For Cauliflower and Bajra Roti
+bajra (black millet) flour for rolling
+1 3/4 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-bhakri-gluten-free-almond-bhakri-41121r</t>
+  </si>
+  <si>
+    <t>Energy 46 cal
+Protein 1.2 g
+Carbohydrates 6 g
+Fiber 1.3 g
+Fat 1.9 g
+Cholesterol 0 mg
+Sodium 6.2 mg</t>
   </si>
 </sst>
 </file>
@@ -499,7 +1118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -813,6 +1432,454 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" t="s">
+        <v>163</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
